--- a/문서/그래픽 발주.xlsx
+++ b/문서/그래픽 발주.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3280E281-2142-47B5-BA42-789FC52AF36E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE6197-B742-4C95-8B48-DE4739B93C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스킬&amp;아이템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,22 @@
   </si>
   <si>
     <t>죽은 대상 부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 모두에게 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/디버프 아이콘 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,7 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -484,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,25 +510,28 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,34 +541,40 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1201</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -560,17 +584,23 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
         <v>1202</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -580,17 +610,20 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
         <v>1203</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -600,17 +633,20 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
         <v>1204</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -621,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -631,8 +667,11 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -642,8 +681,11 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -653,8 +695,11 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -665,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -675,11 +720,25 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/그래픽 발주.xlsx
+++ b/문서/그래픽 발주.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE6197-B742-4C95-8B48-DE4739B93C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0CFAD-CE43-4A3C-AEB3-510EF6F2085F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스킬&amp;아이템" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근접 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사기 저하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -582,22 +582,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>1202</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -605,22 +605,22 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>1203</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -628,22 +628,22 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>1204</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -662,13 +662,13 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -676,13 +676,13 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -690,13 +690,13 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -704,10 +704,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -715,13 +715,13 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -729,10 +729,10 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/문서/그래픽 발주.xlsx
+++ b/문서/그래픽 발주.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0CFAD-CE43-4A3C-AEB3-510EF6F2085F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69599374-8FC3-49B2-8824-E607DE8138B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="4260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스킬&amp;아이템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상 일정 시간동안 무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부활 주문서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽은 대상 부활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천벌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +156,10 @@
   </si>
   <si>
     <t>지속 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 일정 시간동안 데미지 많이 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,13 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +497,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -554,55 +549,55 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1001</v>
+      <c r="A3" s="3">
+        <v>10101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
-        <v>1201</v>
+      <c r="F3" s="3">
+        <v>11201</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1002</v>
+      <c r="A4" s="3">
+        <v>10102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1202</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11202</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1003</v>
+      <c r="A5" s="3">
+        <v>10103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -611,21 +606,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1203</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11203</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1004</v>
+      <c r="A6" s="3">
+        <v>10104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -634,21 +629,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1204</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1005</v>
+      <c r="A7" s="3">
+        <v>10105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -658,8 +645,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1006</v>
+      <c r="A8" s="3">
+        <v>10106</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -668,12 +655,12 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1007</v>
+      <c r="A9" s="3">
+        <v>10107</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -682,12 +669,12 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1008</v>
+      <c r="A10" s="3">
+        <v>10108</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -696,12 +683,12 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1009</v>
+      <c r="A11" s="3">
+        <v>10109</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -711,28 +698,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1010</v>
+      <c r="A12" s="3">
+        <v>10110</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1011</v>
+      <c r="A13" s="3">
+        <v>10111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/문서/그래픽 발주.xlsx
+++ b/문서/그래픽 발주.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69599374-8FC3-49B2-8824-E607DE8138B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="4260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8210" yWindow="4260" windowWidth="21600" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="스킬&amp;아이템" sheetId="1" r:id="rId1"/>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,10 +208,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,40 +492,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,14 +551,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>10101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>11201</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -569,8 +568,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>10102</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -582,7 +581,7 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>11202</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -595,8 +594,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>10103</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -608,7 +607,7 @@
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>11203</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -618,8 +617,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>10104</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -631,10 +630,10 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>10105</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -644,8 +643,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>10106</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -658,8 +657,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>10107</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -672,8 +671,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>10108</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -686,8 +685,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>10109</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -697,8 +696,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>10110</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -711,8 +710,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>10111</v>
       </c>
       <c r="B13" s="1" t="s">
